--- a/files/db.xlsx
+++ b/files/db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>table1</t>
   </si>
@@ -39,20 +39,68 @@
     <t>switch</t>
   </si>
   <si>
-    <t>BIGINT, AUTOINCREMENT</t>
-  </si>
-  <si>
     <t>TEXT</t>
   </si>
   <si>
     <t>BIGINT</t>
+  </si>
+  <si>
+    <t>sqlite type</t>
+  </si>
+  <si>
+    <t>table2</t>
+  </si>
+  <si>
+    <t>Switches</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>INTEGER PRIMARY KEY AUTOINCREMENT</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>tor</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time of registration</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Full duplex Mbps - 10/100/1000. Half duplex - 5/50/500</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>0 - not available, 1-accept, 2-reject</t>
+  </si>
+  <si>
+    <t>Registrations</t>
+  </si>
+  <si>
+    <t>table3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +114,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,9 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +159,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -149,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,62 +454,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/files/db.xlsx
+++ b/files/db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>table1</t>
   </si>
@@ -42,9 +42,6 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>BIGINT</t>
-  </si>
-  <si>
     <t>sqlite type</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>tor</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>time of registration</t>
   </si>
   <si>
@@ -94,6 +88,18 @@
   </si>
   <si>
     <t>table3</t>
+  </si>
+  <si>
+    <t>lastseen</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>Last switch</t>
+  </si>
+  <si>
+    <t>Last port</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D30"/>
+  <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,13 +479,13 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -487,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -500,34 +506,40 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -535,61 +547,55 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -597,88 +603,94 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>25</v>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -691,9 +703,17 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>7</v>
       </c>
     </row>

--- a/files/db.xlsx
+++ b/files/db.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,6 +11,9 @@
     <sheet name="Lapa2" sheetId="2" r:id="rId2"/>
     <sheet name="Lapa3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -160,8 +163,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -216,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/files/db.xlsx
+++ b/files/db.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -493,22 +493,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
@@ -519,7 +519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -527,7 +527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -535,7 +535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -543,7 +543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -551,7 +551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -562,7 +562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -573,7 +573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -584,12 +584,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
@@ -600,7 +600,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>2</v>
       </c>
@@ -608,7 +608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>4</v>
       </c>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -632,7 +632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -643,7 +643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>12</v>
       </c>
@@ -654,7 +654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -676,7 +676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -684,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -695,12 +695,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>2</v>
       </c>
@@ -716,7 +716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>4</v>
       </c>
@@ -732,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -760,7 +760,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -772,7 +772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
